--- a/Homework1/results.xlsx
+++ b/Homework1/results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luke/dev/school/ALGO/Homework1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CFEA9696-EF85-4147-B06A-62CE91E60FA1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA401941-3D19-2945-B7B9-55EAA1170BE4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="No Sorting" sheetId="2" r:id="rId2"/>
+    <sheet name="Insertion Sort" sheetId="3" r:id="rId3"/>
+    <sheet name="QuickSort" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">QuickSort!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">QuickSort!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">QuickSort!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">QuickSort!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">QuickSort!$A$1</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">QuickSort!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">QuickSort!$B$1</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">QuickSort!$B$2:$B$11</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>No Sorting</t>
   </si>
@@ -46,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -584,6 +597,2915 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Array Length</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Running Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'No Sorting'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'No Sorting'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'No Sorting'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DED5-1941-905E-E8F25E451B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="868839680"/>
+        <c:axId val="868841360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="868839680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868841360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="868841360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868839680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Array Length vs Running Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Insertion Sort'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Insertion Sort'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Insertion Sort'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8910</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11910</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15721</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19523</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CBE-BD41-8318-641DCC6563BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="869160896"/>
+        <c:axId val="869162576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="869160896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="869162576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="869162576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="869160896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>QuickSort!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>QuickSort!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>QuickSort!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCDA-9F48-961F-35E6C5C95F4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="868964480"/>
+        <c:axId val="868995072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="868964480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868995072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="868995072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868964480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39BD9401-B3F2-B94E-9517-221CEA4AE4FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4AFB0E1-4C73-8340-AF51-6CC23A7CE638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA96809-309B-9546-A4DD-0398F410D9EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -880,12 +3802,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2168,4 +5103,316 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CBC503-913B-AE45-8229-7F384795163E}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000000</v>
+      </c>
+      <c r="B2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20000000</v>
+      </c>
+      <c r="B3">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30000000</v>
+      </c>
+      <c r="B4">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>40000000</v>
+      </c>
+      <c r="B5">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50000000</v>
+      </c>
+      <c r="B6">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>60000000</v>
+      </c>
+      <c r="B7">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>70000000</v>
+      </c>
+      <c r="B8">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>80000000</v>
+      </c>
+      <c r="B9">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>90000000</v>
+      </c>
+      <c r="B10">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100000000</v>
+      </c>
+      <c r="B11">
+        <v>5198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00CB613-879D-554E-AF1B-DC8BC376BDD5}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20000</v>
+      </c>
+      <c r="B3">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30000</v>
+      </c>
+      <c r="B4">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>40000</v>
+      </c>
+      <c r="B5">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50000</v>
+      </c>
+      <c r="B6">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>60000</v>
+      </c>
+      <c r="B7">
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>70000</v>
+      </c>
+      <c r="B8">
+        <v>11910</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>80000</v>
+      </c>
+      <c r="B9">
+        <v>15721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>90000</v>
+      </c>
+      <c r="B10">
+        <v>19523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>23868</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B97221-1716-9B48-8527-1D5A53753888}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20000</v>
+      </c>
+      <c r="B3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30000</v>
+      </c>
+      <c r="B4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>40000</v>
+      </c>
+      <c r="B5">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50000</v>
+      </c>
+      <c r="B6">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>60000</v>
+      </c>
+      <c r="B7">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>70000</v>
+      </c>
+      <c r="B8">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>80000</v>
+      </c>
+      <c r="B9">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>90000</v>
+      </c>
+      <c r="B10">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>3285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Homework1/results.xlsx
+++ b/Homework1/results.xlsx
@@ -8,32 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luke/dev/school/ALGO/Homework1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA401941-3D19-2945-B7B9-55EAA1170BE4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2559AB-041A-4B47-8A42-0038BD1CF79E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="No Sorting" sheetId="2" r:id="rId2"/>
     <sheet name="Insertion Sort" sheetId="3" r:id="rId3"/>
     <sheet name="QuickSort" sheetId="4" r:id="rId4"/>
+    <sheet name="Combined" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">QuickSort!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">QuickSort!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">QuickSort!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">QuickSort!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">QuickSort!$A$1</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">QuickSort!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">QuickSort!$B$1</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">QuickSort!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Combined!$C$27:$C$28</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Combined!$C$29:$C$38</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Combined!$A$29:$A$38</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Combined!$B$27:$B$28</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Combined!$B$29:$B$38</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Combined!$C$27:$C$28</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Combined!$C$29:$C$38</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Combined!$A$29:$A$38</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Combined!$B$27:$B$28</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Combined!$B$29:$B$38</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Combined!$C$27:$C$28</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Combined!$C$29:$C$38</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Combined!$A$27:$A$28</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Combined!$A$29:$A$38</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Combined!$B$27:$B$28</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Combined!$B$29:$B$38</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Combined!$A$27:$A$28</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Combined!$A$29:$A$38</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Combined!$B$27:$B$28</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Combined!$B$29:$B$38</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Combined!$C$27:$C$28</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Combined!$C$29:$C$38</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>No Sorting</t>
   </si>
@@ -54,6 +69,12 @@
   </si>
   <si>
     <t>Quick Sorting</t>
+  </si>
+  <si>
+    <t>QuickSort</t>
+  </si>
+  <si>
+    <t>Insertion</t>
   </si>
 </sst>
 </file>
@@ -1715,6 +1736,1073 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random Array Creation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Combined!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Combined!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4048-2F46-8072-781844BB9E03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="692850639"/>
+        <c:axId val="692852367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="692850639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="692852367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="692852367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="692850639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Insertion Sort and QuickSort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$B$27:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Combined!$A$29:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$B$29:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8910</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11910</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15721</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19523</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A946-F640-B4B0-138D8007AB67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$C$27:$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>QuickSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Combined!$A$29:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$C$29:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A946-F640-B4B0-138D8007AB67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="691611407"/>
+        <c:axId val="731026351"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="691611407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731026351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="731026351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="691611407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1835,6 +2923,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3364,6 +4532,1038 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3498,6 +5698,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331EB460-1860-6F41-A7FE-5709B5E744EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82325D1C-A45E-4D4F-93C5-FFC5690ABBAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3805,7 +6082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -5110,7 +7387,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5214,7 +7491,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5318,7 +7595,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5415,4 +7692,242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDB777E-FC97-924F-AF96-4220E64DFC66}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10000000</v>
+      </c>
+      <c r="B3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20000000</v>
+      </c>
+      <c r="B4">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30000000</v>
+      </c>
+      <c r="B5">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>40000000</v>
+      </c>
+      <c r="B6">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>50000000</v>
+      </c>
+      <c r="B7">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>60000000</v>
+      </c>
+      <c r="B8">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>70000000</v>
+      </c>
+      <c r="B9">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>80000000</v>
+      </c>
+      <c r="B10">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>90000000</v>
+      </c>
+      <c r="B11">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100000000</v>
+      </c>
+      <c r="B12">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10000</v>
+      </c>
+      <c r="B29">
+        <v>236</v>
+      </c>
+      <c r="C29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20000</v>
+      </c>
+      <c r="B30">
+        <v>942</v>
+      </c>
+      <c r="C30">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30000</v>
+      </c>
+      <c r="B31">
+        <v>2146</v>
+      </c>
+      <c r="C31">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>40000</v>
+      </c>
+      <c r="B32">
+        <v>3819</v>
+      </c>
+      <c r="C32">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>50000</v>
+      </c>
+      <c r="B33">
+        <v>6099</v>
+      </c>
+      <c r="C33">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>60000</v>
+      </c>
+      <c r="B34">
+        <v>8910</v>
+      </c>
+      <c r="C34">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>70000</v>
+      </c>
+      <c r="B35">
+        <v>11910</v>
+      </c>
+      <c r="C35">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>80000</v>
+      </c>
+      <c r="B36">
+        <v>15721</v>
+      </c>
+      <c r="C36">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>90000</v>
+      </c>
+      <c r="B37">
+        <v>19523</v>
+      </c>
+      <c r="C37">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>100000</v>
+      </c>
+      <c r="B38">
+        <v>23868</v>
+      </c>
+      <c r="C38">
+        <v>3285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Homework1/results.xlsx
+++ b/Homework1/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luke/dev/school/ALGO/Homework1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lchan\dev\school\CSE5350\Homework1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2559AB-041A-4B47-8A42-0038BD1CF79E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{46442B34-FDB6-4A72-BB6B-25FA3581FF8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,30 +19,6 @@
     <sheet name="QuickSort" sheetId="4" r:id="rId4"/>
     <sheet name="Combined" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">Combined!$C$27:$C$28</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Combined!$C$29:$C$38</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Combined!$A$29:$A$38</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Combined!$B$27:$B$28</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Combined!$B$29:$B$38</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Combined!$C$27:$C$28</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Combined!$C$29:$C$38</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Combined!$A$29:$A$38</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Combined!$B$27:$B$28</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Combined!$B$29:$B$38</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Combined!$C$27:$C$28</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Combined!$C$29:$C$38</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Combined!$A$27:$A$28</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Combined!$A$29:$A$38</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Combined!$B$27:$B$28</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Combined!$B$29:$B$38</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Combined!$A$27:$A$28</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Combined!$A$29:$A$38</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Combined!$B$27:$B$28</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Combined!$B$29:$B$38</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Combined!$C$27:$C$28</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Combined!$C$29:$C$38</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -5710,14 +5686,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5746,16 +5722,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>835025</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6086,20 +6062,20 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6107,7 +6083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6145,7 +6121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000000</v>
       </c>
@@ -6183,7 +6159,7 @@
         <v>1000742</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20000000</v>
       </c>
@@ -6221,7 +6197,7 @@
         <v>2002497</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30000000</v>
       </c>
@@ -6259,7 +6235,7 @@
         <v>2996599</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40000000</v>
       </c>
@@ -6297,7 +6273,7 @@
         <v>4000016</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50000000</v>
       </c>
@@ -6335,7 +6311,7 @@
         <v>5001463</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60000000</v>
       </c>
@@ -6373,7 +6349,7 @@
         <v>6003106</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70000000</v>
       </c>
@@ -6411,7 +6387,7 @@
         <v>7003426</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000000</v>
       </c>
@@ -6449,7 +6425,7 @@
         <v>8001300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90000000</v>
       </c>
@@ -6487,7 +6463,7 @@
         <v>9001735</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100000000</v>
       </c>
@@ -6525,7 +6501,7 @@
         <v>9998732</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6533,7 +6509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -6571,7 +6547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10000</v>
       </c>
@@ -6609,7 +6585,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20000</v>
       </c>
@@ -6647,7 +6623,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>30000</v>
       </c>
@@ -6685,7 +6661,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>40000</v>
       </c>
@@ -6723,7 +6699,7 @@
         <v>4012</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50000</v>
       </c>
@@ -6761,7 +6737,7 @@
         <v>4932</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>60000</v>
       </c>
@@ -6799,7 +6775,7 @@
         <v>5884</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>70000</v>
       </c>
@@ -6837,7 +6813,7 @@
         <v>6960</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>80000</v>
       </c>
@@ -6875,7 +6851,7 @@
         <v>8029</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>90000</v>
       </c>
@@ -6913,7 +6889,7 @@
         <v>9025</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>100000</v>
       </c>
@@ -6951,7 +6927,7 @@
         <v>10089</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -6959,7 +6935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -6997,7 +6973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10000</v>
       </c>
@@ -7035,7 +7011,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20000</v>
       </c>
@@ -7073,7 +7049,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30000</v>
       </c>
@@ -7111,7 +7087,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40000</v>
       </c>
@@ -7149,7 +7125,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50000</v>
       </c>
@@ -7187,7 +7163,7 @@
         <v>5138</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>60000</v>
       </c>
@@ -7225,7 +7201,7 @@
         <v>6111</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>70000</v>
       </c>
@@ -7263,7 +7239,7 @@
         <v>7222</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>80000</v>
       </c>
@@ -7301,7 +7277,7 @@
         <v>8015</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>90000</v>
       </c>
@@ -7339,7 +7315,7 @@
         <v>9044</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>100000</v>
       </c>
@@ -7390,9 +7366,9 @@
       <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7400,7 +7376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000000</v>
       </c>
@@ -7408,7 +7384,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20000000</v>
       </c>
@@ -7416,7 +7392,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30000000</v>
       </c>
@@ -7424,7 +7400,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40000000</v>
       </c>
@@ -7432,7 +7408,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50000000</v>
       </c>
@@ -7440,7 +7416,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60000000</v>
       </c>
@@ -7448,7 +7424,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70000000</v>
       </c>
@@ -7456,7 +7432,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80000000</v>
       </c>
@@ -7464,7 +7440,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90000000</v>
       </c>
@@ -7472,7 +7448,7 @@
         <v>5424</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100000000</v>
       </c>
@@ -7494,9 +7470,9 @@
       <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7504,7 +7480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -7512,7 +7488,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20000</v>
       </c>
@@ -7520,7 +7496,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30000</v>
       </c>
@@ -7528,7 +7504,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40000</v>
       </c>
@@ -7536,7 +7512,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50000</v>
       </c>
@@ -7544,7 +7520,7 @@
         <v>6099</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60000</v>
       </c>
@@ -7552,7 +7528,7 @@
         <v>8910</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70000</v>
       </c>
@@ -7560,7 +7536,7 @@
         <v>11910</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80000</v>
       </c>
@@ -7568,7 +7544,7 @@
         <v>15721</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90000</v>
       </c>
@@ -7576,7 +7552,7 @@
         <v>19523</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100000</v>
       </c>
@@ -7598,9 +7574,9 @@
       <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7608,7 +7584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -7616,7 +7592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20000</v>
       </c>
@@ -7624,7 +7600,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30000</v>
       </c>
@@ -7632,7 +7608,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40000</v>
       </c>
@@ -7640,7 +7616,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50000</v>
       </c>
@@ -7648,7 +7624,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60000</v>
       </c>
@@ -7656,7 +7632,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70000</v>
       </c>
@@ -7664,7 +7640,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80000</v>
       </c>
@@ -7672,7 +7648,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90000</v>
       </c>
@@ -7680,7 +7656,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100000</v>
       </c>
@@ -7698,18 +7674,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDB777E-FC97-924F-AF96-4220E64DFC66}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7717,7 +7693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000000</v>
       </c>
@@ -7725,7 +7701,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20000000</v>
       </c>
@@ -7733,7 +7709,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30000000</v>
       </c>
@@ -7741,7 +7717,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40000000</v>
       </c>
@@ -7749,7 +7725,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50000000</v>
       </c>
@@ -7757,7 +7733,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60000000</v>
       </c>
@@ -7765,7 +7741,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70000000</v>
       </c>
@@ -7773,7 +7749,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80000000</v>
       </c>
@@ -7781,7 +7757,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90000000</v>
       </c>
@@ -7789,7 +7765,7 @@
         <v>5424</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100000000</v>
       </c>
@@ -7797,7 +7773,7 @@
         <v>5198</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>8</v>
       </c>
@@ -7805,7 +7781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -7816,7 +7792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10000</v>
       </c>
@@ -7827,7 +7803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20000</v>
       </c>
@@ -7838,7 +7814,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30000</v>
       </c>
@@ -7849,7 +7825,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>40000</v>
       </c>
@@ -7860,7 +7836,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50000</v>
       </c>
@@ -7871,7 +7847,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>60000</v>
       </c>
@@ -7882,7 +7858,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>70000</v>
       </c>
@@ -7893,7 +7869,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>80000</v>
       </c>
@@ -7904,7 +7880,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>90000</v>
       </c>
@@ -7915,7 +7891,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>100000</v>
       </c>
